--- a/doc/重量估算.xlsx
+++ b/doc/重量估算.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -343,7 +343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -395,6 +394,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -410,6 +414,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -425,6 +434,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -440,6 +454,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -455,6 +474,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -486,7 +510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>490</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>430</c:v>
@@ -503,6 +527,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -525,7 +554,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -593,7 +621,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -632,7 +660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -684,6 +711,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -699,6 +731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -714,6 +751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -729,6 +771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -744,6 +791,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -792,6 +844,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -814,7 +871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2016,7 +2072,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2046,7 +2108,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2065,7 +2133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2140,6 +2208,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2175,6 +2260,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2354,20 +2456,20 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="35.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2390,7 +2492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2401,11 +2503,11 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E15" si="0">C2*D2</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2417,7 +2519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2428,11 +2530,11 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2445,7 +2547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2456,11 +2558,11 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2473,7 +2575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +2631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2725,7 +2827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2750,7 +2852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2778,26 +2880,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="E16">
         <f>SUM(E2:E15)</f>
-        <v>2325</v>
+        <v>2435</v>
       </c>
       <c r="G16">
         <f>SUM(G2:G15)</f>
         <v>4515</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="E17">
         <f>E16*1.2</f>
-        <v>2790</v>
+        <v>2922</v>
       </c>
       <c r="G17">
         <f>G16*1.2</f>
@@ -2807,25 +2909,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="E22">
         <f>E2+E4+E3</f>
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="G22">
         <f>G2+G3+G4</f>
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2838,7 +2940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2851,7 +2953,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2864,7 +2966,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>

--- a/doc/重量估算.xlsx
+++ b/doc/重量估算.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4s 2214配置" sheetId="1" r:id="rId1"/>
+    <sheet name="3508配置" sheetId="3" r:id="rId2"/>
+    <sheet name="u3配置" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +95,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实是6个的价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,15 +186,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大概需要5张,也有3mm的d板,建议买10张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大扭力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式3s5300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,12 +233,108 @@
     <t>或2200*2,或4s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>尾部电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗宇X2216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后出轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾部电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好盈铂金40A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM 3508 Kv700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好盈乐天40A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM电调一个230,经费花不完可以换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM12*4CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emmmm,氪金帝都炸不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式4s5300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式4s5300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2-4.8kg拉力@4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概需要10张,也有3mm的d板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概需要10张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8(60%)-5.4kg(100%)推力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0(60%)-7.2kg(100%)推力,动力澎湃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM13*4.4CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗宇X2820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好盈飞腾60A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES3104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制(~700级尾部)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要大一点的尾桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +347,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,14 +375,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -304,7 +401,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -343,6 +440,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -394,7 +492,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -414,7 +512,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -434,7 +532,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -454,7 +552,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -474,7 +572,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -482,7 +580,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:f>'4s 2214配置'!$A$24:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -505,15 +603,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$26</c:f>
+              <c:f>'4s 2214配置'!$E$24:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>430</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>380</c:v>
@@ -522,12 +620,12 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>805</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
             </c:ext>
@@ -554,6 +652,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -621,7 +720,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -660,6 +759,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,7 +811,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -731,7 +831,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -751,7 +851,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -771,7 +871,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -791,7 +891,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -799,7 +899,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:f>'4s 2214配置'!$A$24:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -822,15 +922,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$22:$G$26</c:f>
+              <c:f>'4s 2214配置'!$G$24:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>999</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>362</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1300</c:v>
@@ -839,12 +939,12 @@
                   <c:v>1619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
             </c:ext>
@@ -871,6 +971,1283 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>重量分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3508配置'!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>动力</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>电力</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>机构</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>电子设备</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>结构</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3508配置'!$E$24:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>成本分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3508配置'!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>动力</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>电力</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>机构</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>电子设备</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>结构</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3508配置'!$G$24:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>重量分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>u3配置!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>动力</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>电力</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>机构</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>电子设备</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>结构</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>u3配置!$E$24:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>成本分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>u3配置!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>动力</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>电力</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>机构</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>电子设备</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>结构</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>u3配置!$G$24:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1017,6 +2394,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1537,6 +3074,2082 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2067,7 +5680,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2075,7 +5688,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,13 +5710,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2111,7 +5724,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,8 +5745,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2208,23 +5983,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2260,23 +6018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2453,25 +6194,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" customWidth="1"/>
-    <col min="8" max="8" width="35.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -2492,7 +6233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2503,51 +6244,51 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E15" si="0">C2*D2</f>
-        <v>360</v>
+        <f t="shared" ref="E2:E17" si="0">C2*D2</f>
+        <v>240</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>999</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
+        <v>599</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">F3*D3</f>
+        <f t="shared" ref="G3:G17" si="1">F3*D3</f>
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2558,11 +6299,11 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2572,411 +6313,1638 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>362</v>
+        <v>143</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>362</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>505</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>505</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>420</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
         <v>40</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>2587</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <f>E18*1.2</f>
+        <v>3104.4</v>
+      </c>
+      <c r="G19">
+        <f>G18*1.2</f>
+        <v>5341.2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <f>E2+E4+E3+E5+E6</f>
+        <v>512</v>
+      </c>
+      <c r="G24">
+        <f>G2+G3+G4+G6+G5</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f>E8</f>
+        <v>505</v>
+      </c>
+      <c r="G25">
+        <f>G8</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <f>E16+E13+E9+E11</f>
+        <v>380</v>
+      </c>
+      <c r="G26">
+        <f>G16+G13+G9+G11</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <f>E7+E10</f>
+        <v>220</v>
+      </c>
+      <c r="G27">
+        <f>G7+G10</f>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <f>E12+E14+E15+E17</f>
+        <v>970</v>
+      </c>
+      <c r="G28">
+        <f>G12+G14+G15+G17</f>
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E17" si="0">C2*D2</f>
+        <v>328</v>
+      </c>
+      <c r="F2">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G17" si="1">F2*D2</f>
+        <v>1596</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>143</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>505</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="F8">
+        <v>420</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
-        <f>SUM(E2:E15)</f>
-        <v>2435</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
       </c>
       <c r="G16">
-        <f>SUM(G2:G15)</f>
-        <v>4515</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>2811</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <f>E18*1.2</f>
+        <v>3373.2</v>
+      </c>
+      <c r="G19">
+        <f>G18*1.2</f>
+        <v>7675.2</v>
+      </c>
+      <c r="H19" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <f>E2+E4+E3+E5+E6</f>
+        <v>616</v>
+      </c>
+      <c r="G24">
+        <f>G2+G3+G4+G6+G5</f>
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f>E8</f>
+        <v>505</v>
+      </c>
+      <c r="G25">
+        <f>G8</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <f>E16+E13+E9+E11</f>
+        <v>400</v>
+      </c>
+      <c r="G26">
+        <f>G16+G13+G9+G11</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <f>E7+E10</f>
+        <v>220</v>
+      </c>
+      <c r="G27">
+        <f>G7+G10</f>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <f>E12+E14+E15+E17</f>
+        <v>1070</v>
+      </c>
+      <c r="G28">
+        <f>G12+G14+G15+G17</f>
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E17" si="0">C2*D2</f>
+        <v>400</v>
+      </c>
+      <c r="F2">
+        <v>699</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G17" si="1">F2*D2</f>
+        <v>2796</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>143</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>505</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="F8">
+        <v>420</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>400</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
-        <f>E16*1.2</f>
-        <v>2922</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
       </c>
       <c r="G17">
-        <f>G16*1.2</f>
-        <v>5418</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>49</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E17)</f>
+        <v>3322</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G2:G17)</f>
+        <v>8184</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <f>E18*1.2</f>
+        <v>3986.3999999999996</v>
+      </c>
+      <c r="G19">
+        <f>G18*1.2</f>
+        <v>9820.7999999999993</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <f>E2+E4+E3+E5+E6</f>
+        <v>797</v>
+      </c>
+      <c r="G24">
+        <f>G2+G3+G4+G6+G5</f>
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f>E8</f>
+        <v>505</v>
+      </c>
+      <c r="G25">
+        <f>G8</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="E22">
-        <f>E2+E4+E3</f>
-        <v>600</v>
-      </c>
-      <c r="G22">
-        <f>G2+G3+G4</f>
-        <v>999</v>
+      <c r="E26">
+        <f>E16+E13+E9+E11</f>
+        <v>460</v>
+      </c>
+      <c r="G26">
+        <f>G16+G13+G9+G11</f>
+        <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="E23">
-        <f>E6</f>
-        <v>430</v>
-      </c>
-      <c r="G23">
-        <f>G6</f>
-        <v>362</v>
+      <c r="E27">
+        <f>E7+E10</f>
+        <v>290</v>
+      </c>
+      <c r="G27">
+        <f>G7+G10</f>
+        <v>1745</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <f>E14+E11+E7+E9</f>
-        <v>380</v>
-      </c>
-      <c r="G24">
-        <f>G14+G11+G7+G9</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25">
-        <f>E5+E8</f>
-        <v>220</v>
-      </c>
-      <c r="G25">
-        <f>G5+G8</f>
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26">
-        <f>E10+E12+E13+E15</f>
-        <v>805</v>
-      </c>
-      <c r="G26">
-        <f>G10+G12+G13+G15</f>
-        <v>235</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <f>E12+E14+E15+E17</f>
+        <v>1270</v>
+      </c>
+      <c r="G28">
+        <f>G12+G14+G15+G17</f>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/doc/重量估算.xlsx
+++ b/doc/重量估算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4s 2214配置" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1255,7 +1255,7 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1070</c:v>
@@ -1574,7 +1574,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1619</c:v>
+                  <c:v>1745</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>285</c:v>
@@ -5688,7 +5688,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5765,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5803,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5846,7 +5846,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5884,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6788,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6967,27 +6967,24 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7270,11 +7267,11 @@
       </c>
       <c r="E18">
         <f>SUM(E2:E17)</f>
-        <v>2811</v>
+        <v>2881</v>
       </c>
       <c r="G18">
         <f>SUM(G2:G17)</f>
-        <v>6396</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -7283,11 +7280,11 @@
       </c>
       <c r="E19">
         <f>E18*1.2</f>
-        <v>3373.2</v>
+        <v>3457.2</v>
       </c>
       <c r="G19">
         <f>G18*1.2</f>
-        <v>7675.2</v>
+        <v>7826.4</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -7343,11 +7340,11 @@
       </c>
       <c r="E27">
         <f>E7+E10</f>
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="G27">
         <f>G7+G10</f>
-        <v>1619</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -7375,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/重量估算.xlsx
+++ b/doc/重量估算.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4s 2214配置" sheetId="1" r:id="rId1"/>
     <sheet name="3508配置" sheetId="3" r:id="rId2"/>
     <sheet name="u3配置" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -440,7 +441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -652,7 +652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -759,7 +758,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -971,7 +969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5688,7 +5685,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5721,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5762,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5800,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5846,7 +5843,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5881,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6788,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7372,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7950,4 +7947,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/重量估算.xlsx
+++ b/doc/重量估算.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{702B1DD3-D4D4-4860-ABF1-01F3540AB799}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4s 2214配置" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="u3配置" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -334,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +403,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -492,7 +493,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -512,7 +513,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -532,7 +533,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -552,7 +553,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -572,7 +573,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -625,7 +626,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
             </c:ext>
@@ -719,7 +720,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -809,7 +810,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -829,7 +830,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -849,7 +850,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -869,7 +870,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -889,7 +890,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -942,7 +943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
             </c:ext>
@@ -1036,7 +1037,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1075,7 +1076,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1127,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1147,7 +1147,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1167,7 +1167,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1187,7 +1187,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1207,7 +1207,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1260,7 +1260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
             </c:ext>
@@ -1287,7 +1287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1394,7 +1393,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1446,7 +1444,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -1466,7 +1464,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -1486,7 +1484,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -1506,7 +1504,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -1526,7 +1524,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -1579,7 +1577,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
             </c:ext>
@@ -1606,7 +1604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1674,7 +1671,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1713,7 +1710,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1765,7 +1761,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1785,7 +1781,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1805,7 +1801,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1825,7 +1821,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1845,7 +1841,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5082-480B-BC90-22277A87C5E2}"/>
               </c:ext>
@@ -1898,7 +1894,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5082-480B-BC90-22277A87C5E2}"/>
             </c:ext>
@@ -1925,7 +1921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1993,7 +1988,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2032,7 +2027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2084,7 +2078,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -2104,7 +2098,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -2124,7 +2118,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -2144,7 +2138,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -2164,7 +2158,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-9CF6-4263-A9FF-95393B716A0B}"/>
               </c:ext>
@@ -2217,7 +2211,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9CF6-4263-A9FF-95393B716A0B}"/>
             </c:ext>
@@ -2244,7 +2238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5685,7 +5678,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5721,7 +5714,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5762,7 +5755,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5800,7 +5793,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,7 +5836,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5881,7 +5874,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5905,7 +5898,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5980,6 +5973,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6015,6 +6025,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6190,11 +6217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="1" sqref="C5:C6 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6773,7 +6800,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6782,7 +6809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7366,10 +7393,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -7950,7 +7977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
